--- a/week-4/4-3-modeling-scenarios-and-formatting/modeling-various-scenarios-example.xlsx
+++ b/week-4/4-3-modeling-scenarios-and-formatting/modeling-various-scenarios-example.xlsx
@@ -248,6 +248,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,9 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,7 +544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -663,14 +663,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -694,14 +694,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="8.15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="7">
@@ -777,7 +777,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="7">
-        <f t="shared" ref="C24:F24" si="1">SUM(D20:D22)*D10</f>
+        <f t="shared" ref="D24:F24" si="1">SUM(D20:D22)*D10</f>
         <v>271.5</v>
       </c>
       <c r="E24" s="7">
@@ -804,7 +804,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="7">
-        <f t="shared" ref="C26:F26" si="2">D12-D24</f>
+        <f t="shared" ref="D26:F26" si="2">D12-D24</f>
         <v>3</v>
       </c>
       <c r="E26" s="7">
